--- a/arcraiders_workbook_v2.xlsx
+++ b/arcraiders_workbook_v2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weapons" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeaponLevels" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Items" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arcs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ArcDrops" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="README" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Weapons" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="WeaponLevels" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Items" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Arcs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ArcDrops" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="README" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Weapons'!$A$1:$I$1</definedName>
@@ -560,13 +560,13 @@
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <dataValidations count="3">
-    <dataValidation sqref="D2:D10000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D2:D10000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"Common,Uncommon,Rare,Epic,Legendary"</formula1>
     </dataValidation>
-    <dataValidation sqref="F2:F10000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F2:F10000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"Assault,SMG,LMG,Sniper,Rocket,Handgun,Special"</formula1>
     </dataValidation>
-    <dataValidation sqref="G2:G10000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="G2:G10000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"Light,Medium,Heavy,Energy,Rocket,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -677,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -744,10 +744,5311 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>image_001ccf9d</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>items/image_001ccf9d.png</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>image_01d37766</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>items/image_01d37766.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>image_0583bd09</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>items/image_0583bd09.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>image_05c70b05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>items/image_05c70b05.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>image_0656105d</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>items/image_0656105d.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>image_0727b7f7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>items/image_0727b7f7.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>image_07c69daa</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>items/image_07c69daa.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>image_0a6ca591</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>items/image_0a6ca591.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>image_0d106a6c</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>items/image_0d106a6c.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>image_0e694c45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>items/image_0e694c45.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>image_0e911767</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>items/image_0e911767.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>image_0ea138c2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>items/image_0ea138c2.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>image_108f64f1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>items/image_108f64f1.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>image_11911f0e</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>items/image_11911f0e.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>image_12d54e6c</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>items/image_12d54e6c.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>image_13c0b192</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>items/image_13c0b192.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>image_14c62b5b</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>items/image_14c62b5b.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>image_15119ec9</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>items/image_15119ec9.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>image_1519af44</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>items/image_1519af44.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>image_15928417</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>items/image_15928417.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>image_159c3e69</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>items/image_159c3e69.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>image_161887f4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>items/image_161887f4.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>image_16a6f668</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>items/image_16a6f668.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>image_16de2b4e</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>items/image_16de2b4e.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>image_19a7ee16</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>items/image_19a7ee16.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>image_1a2145cc</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>items/image_1a2145cc.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>image_1a2c66af</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>items/image_1a2c66af.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>image_1be57d3d</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>items/image_1be57d3d.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>image_1c8ba500</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>items/image_1c8ba500.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>image_1ca396d3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>items/image_1ca396d3.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>image_1d7367b6</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>items/image_1d7367b6.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>image_1e8ecea8</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>items/image_1e8ecea8.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>image_1eb4ca35</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>items/image_1eb4ca35.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>image_1ebebd69</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>items/image_1ebebd69.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>image_1edfafb8</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>items/image_1edfafb8.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>image_1ee4e937</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>items/image_1ee4e937.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>image_1fa6b6fb</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>items/image_1fa6b6fb.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>image_20b762ca</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>items/image_20b762ca.png</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>image_21114941</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>items/image_21114941.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>image_217a4b38</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>items/image_217a4b38.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>image_23df6eae</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>items/image_23df6eae.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>image_25296bc3</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>items/image_25296bc3.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>image_2632c416</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>items/image_2632c416.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>image_26b2c24b</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>items/image_26b2c24b.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>image_27536e07</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>items/image_27536e07.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>image_27bf3c57</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>items/image_27bf3c57.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>image_286a0b78</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>items/image_286a0b78.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>image_2a1ce0fd</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>items/image_2a1ce0fd.png</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>image_2bccd52e</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>items/image_2bccd52e.png</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>image_2c190252</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>items/image_2c190252.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>image_2c248ba3</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>items/image_2c248ba3.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>image_2ea40597</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>items/image_2ea40597.png</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>image_2f8071f7</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>items/image_2f8071f7.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>image_30d95c8d</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>items/image_30d95c8d.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>image_3100e2fb</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>items/image_3100e2fb.png</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>image_332fed7a</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>items/image_332fed7a.png</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>image_33f05c86</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>items/image_33f05c86.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>image_344298d7</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>items/image_344298d7.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>image_34ec75a3</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>items/image_34ec75a3.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>image_3506f101</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>items/image_3506f101.png</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>image_358f643d</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>items/image_358f643d.png</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>image_37058094</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>items/image_37058094.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>image_378b95c4</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>items/image_378b95c4.png</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>image_3a9923ec</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>items/image_3a9923ec.png</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>image_3ac5a21e</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>items/image_3ac5a21e.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>image_3cd2bcdb</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>items/image_3cd2bcdb.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>image_3f275057</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>items/image_3f275057.png</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>image_3fb46160</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>items/image_3fb46160.png</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>image_400c4f72</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>items/image_400c4f72.png</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>image_42df167a</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>items/image_42df167a.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>image_452cd3e8</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>items/image_452cd3e8.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>image_46dbd013</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>items/image_46dbd013.png</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>image_4755fca6</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>items/image_4755fca6.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>image_48d33b28</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>items/image_48d33b28.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>image_49faa36c</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>items/image_49faa36c.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>image_4a2cb8b9</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>items/image_4a2cb8b9.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>image_4a501443</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>items/image_4a501443.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>image_4ae86aa3</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>items/image_4ae86aa3.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>image_4be7ddc5</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>items/image_4be7ddc5.png</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>image_4c554526</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>items/image_4c554526.png</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>image_4c84ad27</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>items/image_4c84ad27.png</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>image_4cb0dcff</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>items/image_4cb0dcff.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>image_4d904f09</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>items/image_4d904f09.png</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>image_4da802ff</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>items/image_4da802ff.png</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>image_4dd3546e</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>items/image_4dd3546e.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>image_4ec90037</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>items/image_4ec90037.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>image_4ed3ae41</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>items/image_4ed3ae41.png</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>image_4f1e38e5</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>items/image_4f1e38e5.png</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>image_4f7adfe1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>items/image_4f7adfe1.png</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>image_508d34a0</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>items/image_508d34a0.png</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>image_50ac8be0</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>items/image_50ac8be0.png</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>image_51afb841</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>items/image_51afb841.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>image_54c3e1ee</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>items/image_54c3e1ee.png</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>image_56bc63b2</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>items/image_56bc63b2.png</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>image_56ccbc46</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>items/image_56ccbc46.png</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>image_5865332d</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>items/image_5865332d.png</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>image_58a603b0</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>items/image_58a603b0.png</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>image_5a6965b2</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>items/image_5a6965b2.png</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>image_5ba69fa6</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>items/image_5ba69fa6.png</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>image_5c830701</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>items/image_5c830701.png</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>image_5db3134a</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>items/image_5db3134a.png</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>image_5dee8612</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>items/image_5dee8612.png</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>image_5e690c4e</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>items/image_5e690c4e.png</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>image_5faa73d1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>items/image_5faa73d1.png</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>image_5fe35c5e</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>items/image_5fe35c5e.png</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>image_5feaa8c9</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>items/image_5feaa8c9.png</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>image_604f4480</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>items/image_604f4480.png</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>image_61e07dd1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>items/image_61e07dd1.png</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>image_631cd867</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>items/image_631cd867.png</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>image_639308b0</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>items/image_639308b0.png</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>image_64cd2663</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>items/image_64cd2663.png</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>image_65409732</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>items/image_65409732.png</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>image_66602953</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>items/image_66602953.png</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>image_66c2f8c7</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>items/image_66c2f8c7.png</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>image_66c90179</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>items/image_66c90179.png</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>image_675d27f9</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>items/image_675d27f9.png</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>image_6825aebc</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>items/image_6825aebc.png</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>image_683f0473</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>items/image_683f0473.png</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>image_69492ebb</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>items/image_69492ebb.png</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>image_698d8889</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>items/image_698d8889.png</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>image_69aa9632</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>items/image_69aa9632.png</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>image_6ba9bfae</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>items/image_6ba9bfae.png</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>image_6d6cc553</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>items/image_6d6cc553.png</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>image_6df8b8b5</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>items/image_6df8b8b5.png</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>image_6eab5957</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>items/image_6eab5957.png</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>image_6f7bce9a</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>items/image_6f7bce9a.png</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>image_733a77c4</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>items/image_733a77c4.png</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>image_734592d9</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>items/image_734592d9.png</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>image_73506b6c</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>items/image_73506b6c.png</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>image_7391212b</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>items/image_7391212b.png</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>image_73e1339a</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>items/image_73e1339a.png</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>image_74b72c3d</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>items/image_74b72c3d.png</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>image_75a4e394</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>items/image_75a4e394.png</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>image_7601cc8b</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>items/image_7601cc8b.png</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>image_77688f7d</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>items/image_77688f7d.png</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>image_786dd44e</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>items/image_786dd44e.png</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>image_796e8ec2</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>items/image_796e8ec2.png</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>image_7bb06f7b</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>items/image_7bb06f7b.png</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>image_7d7345b1</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>items/image_7d7345b1.png</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>image_7e73437a</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>items/image_7e73437a.png</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>image_7eae9dff</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>items/image_7eae9dff.png</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>image_7f13bc08</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>items/image_7f13bc08.png</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>image_7fafb10c</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>items/image_7fafb10c.png</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>image_80a94cfb</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>items/image_80a94cfb.png</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>image_82890ce2</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>items/image_82890ce2.png</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>image_82a1091b</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>items/image_82a1091b.png</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>image_82a647fa</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>items/image_82a647fa.png</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>image_82c2c812</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>items/image_82c2c812.png</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>image_83f4cbc7</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>items/image_83f4cbc7.png</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>image_84490e72</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>items/image_84490e72.png</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>image_8487f985</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>items/image_8487f985.png</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>image_84d2c2cd</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>items/image_84d2c2cd.png</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>image_8682fc85</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>items/image_8682fc85.png</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>image_86c1bdb3</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>items/image_86c1bdb3.png</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>image_87ae4bf3</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>items/image_87ae4bf3.png</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>image_87d81b45</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>items/image_87d81b45.png</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>image_8c8b0cc4</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>items/image_8c8b0cc4.png</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>image_8ced7e6a</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>items/image_8ced7e6a.png</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>image_8d2154ae</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>items/image_8d2154ae.png</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>image_8d78effc</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>items/image_8d78effc.png</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>image_8ef7f889</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>items/image_8ef7f889.png</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>image_909b63fb</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>items/image_909b63fb.png</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>image_943c03ea</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>items/image_943c03ea.png</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>image_9563dabf</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>items/image_9563dabf.png</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>image_95c16ff7</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>items/image_95c16ff7.png</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>image_97d888a1</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>items/image_97d888a1.png</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>image_97df02c9</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>items/image_97df02c9.png</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>image_98837a69</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>items/image_98837a69.png</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>image_9913a53d</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>items/image_9913a53d.png</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>image_9b82de25</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>items/image_9b82de25.png</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>image_9b8fbd2a</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>items/image_9b8fbd2a.png</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>image_9d12ff72</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>items/image_9d12ff72.png</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>image_9d899fad</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>items/image_9d899fad.png</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>image_9e1e38f2</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>items/image_9e1e38f2.png</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>image_a02a9d0d</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>items/image_a02a9d0d.png</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>image_a0fb00ec</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>items/image_a0fb00ec.png</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>image_a1a497a0</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>items/image_a1a497a0.png</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>image_a2369d4a</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>items/image_a2369d4a.png</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>image_a33a9d97</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>items/image_a33a9d97.png</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>image_a400b40c</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>items/image_a400b40c.png</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>image_a61d1b11</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>items/image_a61d1b11.png</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>image_a760968e</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>items/image_a760968e.png</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>image_a792128b</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>items/image_a792128b.png</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>image_a7a8704c</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>items/image_a7a8704c.png</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>image_a7f78933</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>items/image_a7f78933.png</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>image_a9e27586</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>items/image_a9e27586.png</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>image_aa29cf23</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>items/image_aa29cf23.png</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>image_aabf890d</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>items/image_aabf890d.png</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>image_aae9bf1f</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>items/image_aae9bf1f.png</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>image_ab1fe77f</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>items/image_ab1fe77f.png</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>image_ab2173df</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>items/image_ab2173df.png</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>image_ab807af8</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>items/image_ab807af8.png</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>image_ac29d92d</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>items/image_ac29d92d.png</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>image_ac6a3a3d</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>items/image_ac6a3a3d.png</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>image_accafcce</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>items/image_accafcce.png</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>image_ae5a986f</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>items/image_ae5a986f.png</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>image_ae7369ef</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>items/image_ae7369ef.png</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>image_af1d8d74</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>items/image_af1d8d74.png</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>image_af4dfcb5</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>items/image_af4dfcb5.png</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>image_af9252fd</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>items/image_af9252fd.png</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>image_afbbf9e3</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>items/image_afbbf9e3.png</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>image_b0f5b417</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>items/image_b0f5b417.png</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>image_b14be394</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>items/image_b14be394.png</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>image_b2c1a7ab</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>items/image_b2c1a7ab.png</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>image_b327b43c</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>items/image_b327b43c.png</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>image_b3344f79</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>items/image_b3344f79.png</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>image_b3e29ea3</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>items/image_b3e29ea3.png</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>image_b492d1c7</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>items/image_b492d1c7.png</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>image_b58461fb</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>items/image_b58461fb.png</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>image_b618f4d8</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>items/image_b618f4d8.png</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>image_b651dfee</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>items/image_b651dfee.png</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>image_b6696616</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>items/image_b6696616.png</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>image_ba2e0e05</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>items/image_ba2e0e05.png</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>image_bb7a5b90</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>items/image_bb7a5b90.png</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>image_bcc78533</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>items/image_bcc78533.png</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>image_bd4f394f</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>items/image_bd4f394f.png</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>image_bf8c0d0b</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>items/image_bf8c0d0b.png</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>image_bf9fc3a3</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>items/image_bf9fc3a3.png</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>image_bfced18c</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>items/image_bfced18c.png</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>image_c01cae8e</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>items/image_c01cae8e.png</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>image_c04f9107</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>items/image_c04f9107.png</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>image_c19e537f</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>items/image_c19e537f.png</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>image_c28dcc0f</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>items/image_c28dcc0f.png</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>image_c2e5bcdf</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>items/image_c2e5bcdf.png</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>image_c39b9f44</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>items/image_c39b9f44.png</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>image_c4bdca23</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>items/image_c4bdca23.png</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>image_c581084b</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>items/image_c581084b.png</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>image_c6d14b16</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>items/image_c6d14b16.png</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>image_c7f56fd8</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>items/image_c7f56fd8.png</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>image_c936439a</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>items/image_c936439a.png</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>image_ca2a2955</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>items/image_ca2a2955.png</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>image_cacd0bc5</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>items/image_cacd0bc5.png</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>image_cb7982c5</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>items/image_cb7982c5.png</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>image_ccb92abe</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>items/image_ccb92abe.png</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>image_ccc786f3</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>items/image_ccc786f3.png</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>image_cd5d4fc5</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>items/image_cd5d4fc5.png</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>image_cdb5a1cf</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>items/image_cdb5a1cf.png</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>image_d28bf71f</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>items/image_d28bf71f.png</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>image_d2909ef9</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>items/image_d2909ef9.png</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>image_d3dbcde6</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>items/image_d3dbcde6.png</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>image_d45ead84</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>items/image_d45ead84.png</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>image_d6d65fb7</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>items/image_d6d65fb7.png</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>image_d89a61f8</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>items/image_d89a61f8.png</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>image_d8b1de98</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>items/image_d8b1de98.png</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>image_d8e3a53c</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>items/image_d8e3a53c.png</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>image_d9052410</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>items/image_d9052410.png</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>image_d9f7b72a</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>items/image_d9f7b72a.png</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>image_db6482bb</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>items/image_db6482bb.png</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>image_dc9baead</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>items/image_dc9baead.png</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>image_dd8fcef9</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>items/image_dd8fcef9.png</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>image_e187c923</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>items/image_e187c923.png</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>image_e2abb2be</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>items/image_e2abb2be.png</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>image_e3b0a6af</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>items/image_e3b0a6af.png</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>image_e57ee719</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>items/image_e57ee719.png</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>image_e6419928</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>items/image_e6419928.png</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>image_e7401b52</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>items/image_e7401b52.png</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>image_e9916c9b</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>items/image_e9916c9b.png</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>image_ea989605</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>items/image_ea989605.png</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>image_ebeff0fb</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>items/image_ebeff0fb.png</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>image_ee436289</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>items/image_ee436289.png</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>image_f06731c4</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>items/image_f06731c4.png</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>image_f0b38753</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>items/image_f0b38753.png</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>image_f199bcc4</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>items/image_f199bcc4.png</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>image_f2c01eee</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>items/image_f2c01eee.png</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>image_f34304fc</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>items/image_f34304fc.png</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>image_f38cd351</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>items/image_f38cd351.png</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>image_f3a6b144</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>items/image_f3a6b144.png</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>image_f3bd2199</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>items/image_f3bd2199.png</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>image_f56050c0</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>items/image_f56050c0.png</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>image_f6738446</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>items/image_f6738446.png</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>image_f6a6ad39</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>items/image_f6a6ad39.png</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>image_f6c08d63</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>items/image_f6c08d63.png</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>image_f992eee4</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>items/image_f992eee4.png</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>image_fab92d83</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>items/image_fab92d83.png</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>image_faeb6ef3</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>items/image_faeb6ef3.png</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>image_fc06cc7b</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>items/image_fc06cc7b.png</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>image_fd3ee5b3</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>items/image_fd3ee5b3.png</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>image_fe1d0eab</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>items/image_fe1d0eab.png</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>image_fffb87ad</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>items/image_fffb87ad.png</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <dataValidations count="1">
-    <dataValidation sqref="D2:D10000" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D2:D10000" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"Common,Uncommon,Rare,Epic,Legendary"</formula1>
     </dataValidation>
   </dataValidations>
